--- a/testdata/FCfiles/qa/RequestReroute/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/RequestReroute/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="381">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1155,6 +1155,21 @@
   </si>
   <si>
     <t>FCUPSG1011889</t>
+  </si>
+  <si>
+    <t>51530619</t>
+  </si>
+  <si>
+    <t>02-11-2022</t>
+  </si>
+  <si>
+    <t>$153.38</t>
+  </si>
+  <si>
+    <t>1Z44R7R60390087373</t>
+  </si>
+  <si>
+    <t>FCUPSG1012072</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1205,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="564">
+  <fills count="574">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4007,8 +4022,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="560">
+  <borders count="570">
     <border>
       <left/>
       <right/>
@@ -6524,6 +6589,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6532,7 +6632,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="336">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6863,7 +6963,12 @@
     <xf applyBorder="true" applyFill="true" borderId="553" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="555" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="557" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="563" borderId="559" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="559" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="561" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="563" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="565" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="567" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="573" borderId="569" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -7511,8 +7616,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="317" t="s">
-        <v>366</v>
+      <c r="B2" s="332" t="s">
+        <v>377</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -7563,20 +7668,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="316" t="s">
-        <v>365</v>
+      <c r="V2" s="331" t="s">
+        <v>376</v>
       </c>
       <c r="W2" s="235" t="s">
         <v>309</v>
       </c>
-      <c r="X2" s="318" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y2" s="319" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z2" s="320" t="s">
-        <v>367</v>
+      <c r="X2" s="333" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y2" s="334" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z2" s="335" t="s">
+        <v>380</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>147</v>

--- a/testdata/FCfiles/qa/RequestReroute/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/RequestReroute/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="233">
   <si>
     <t>shipmentType</t>
   </si>
@@ -687,6 +687,45 @@
   </si>
   <si>
     <t>FCUPSG1012220</t>
+  </si>
+  <si>
+    <t>51538966</t>
+  </si>
+  <si>
+    <t>05-08-2022</t>
+  </si>
+  <si>
+    <t>$534.57</t>
+  </si>
+  <si>
+    <t>361U647812</t>
+  </si>
+  <si>
+    <t>FCPBID1001648</t>
+  </si>
+  <si>
+    <t>51538972</t>
+  </si>
+  <si>
+    <t>$65.97</t>
+  </si>
+  <si>
+    <t>1Z44R7R60395270058</t>
+  </si>
+  <si>
+    <t>FCUPSG1012424</t>
+  </si>
+  <si>
+    <t>51538979</t>
+  </si>
+  <si>
+    <t>$158.96</t>
+  </si>
+  <si>
+    <t>1Z44R7R60397082883</t>
+  </si>
+  <si>
+    <t>FCUPSG1012429</t>
   </si>
 </sst>
 </file>
@@ -722,7 +761,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="98">
+  <fills count="128">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,8 +1248,158 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="94">
+  <borders count="124">
     <border>
       <left/>
       <right/>
@@ -2024,6 +2213,111 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -2103,7 +2397,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2201,7 +2495,22 @@
     <xf applyBorder="true" applyFill="true" borderId="87" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="89" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="91" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="93" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="123" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2849,8 +3158,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="89" t="s">
-        <v>212</v>
+      <c r="B2" s="99" t="s">
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -2901,20 +3210,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="88" t="s">
-        <v>211</v>
+      <c r="V2" s="98" t="s">
+        <v>220</v>
       </c>
       <c r="W2" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="X2" s="90" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y2" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z2" s="92" t="s">
-        <v>215</v>
+      <c r="X2" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y2" s="101" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z2" s="102" t="s">
+        <v>224</v>
       </c>
       <c r="AA2" s="87" t="s">
         <v>210</v>
@@ -3491,8 +3800,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="94" t="s">
-        <v>212</v>
+      <c r="B9" s="104" t="s">
+        <v>221</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3543,20 +3852,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="93" t="s">
-        <v>216</v>
+      <c r="V9" s="103" t="s">
+        <v>225</v>
       </c>
       <c r="W9" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y9" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z9" s="97" t="s">
-        <v>219</v>
+      <c r="X9" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y9" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z9" s="107" t="s">
+        <v>228</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>146</v>
@@ -3659,8 +3968,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="78" t="s">
-        <v>196</v>
+      <c r="B11" s="109" t="s">
+        <v>221</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -3711,20 +4020,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="77" t="s">
-        <v>201</v>
+      <c r="V11" s="108" t="s">
+        <v>229</v>
       </c>
       <c r="W11" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y11" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z11" s="81" t="s">
-        <v>204</v>
+      <c r="X11" s="110" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y11" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z11" s="112" t="s">
+        <v>232</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>146</v>

--- a/testdata/FCfiles/qa/RequestReroute/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/RequestReroute/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="237">
   <si>
     <t>shipmentType</t>
   </si>
@@ -726,6 +726,18 @@
   </si>
   <si>
     <t>FCUPSG1012429</t>
+  </si>
+  <si>
+    <t>51539515</t>
+  </si>
+  <si>
+    <t>05-15-2022</t>
+  </si>
+  <si>
+    <t>361U661334</t>
+  </si>
+  <si>
+    <t>FCPBID1001658</t>
   </si>
 </sst>
 </file>
@@ -761,7 +773,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="128">
+  <fills count="138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,8 +1410,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="124">
+  <borders count="134">
     <border>
       <left/>
       <right/>
@@ -2213,6 +2275,41 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -2397,7 +2494,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2510,7 +2607,12 @@
     <xf applyBorder="true" applyFill="true" borderId="117" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="119" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="121" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="123" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="133" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3158,8 +3260,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>221</v>
+      <c r="B2" s="114" t="s">
+        <v>234</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -3210,20 +3312,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="98" t="s">
-        <v>220</v>
+      <c r="V2" s="113" t="s">
+        <v>233</v>
       </c>
       <c r="W2" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="X2" s="100" t="s">
+      <c r="X2" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="Y2" s="101" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z2" s="102" t="s">
-        <v>224</v>
+      <c r="Y2" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z2" s="117" t="s">
+        <v>236</v>
       </c>
       <c r="AA2" s="87" t="s">
         <v>210</v>

--- a/testdata/FCfiles/qa/RequestReroute/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/RequestReroute/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="247">
   <si>
     <t>shipmentType</t>
   </si>
@@ -738,6 +738,36 @@
   </si>
   <si>
     <t>FCPBID1001658</t>
+  </si>
+  <si>
+    <t>51540748</t>
+  </si>
+  <si>
+    <t>06-01-2022</t>
+  </si>
+  <si>
+    <t>$66.51</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391369101</t>
+  </si>
+  <si>
+    <t>FCUPSG1012592</t>
+  </si>
+  <si>
+    <t>51540840</t>
+  </si>
+  <si>
+    <t>06-02-2022</t>
+  </si>
+  <si>
+    <t>$570.48</t>
+  </si>
+  <si>
+    <t>361U698177</t>
+  </si>
+  <si>
+    <t>FCPBID1001701</t>
   </si>
 </sst>
 </file>
@@ -773,7 +803,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="138">
+  <fills count="158">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1460,8 +1490,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="134">
+  <borders count="154">
     <border>
       <left/>
       <right/>
@@ -2275,6 +2405,76 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -2494,7 +2694,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2612,7 +2812,17 @@
     <xf applyBorder="true" applyFill="true" borderId="127" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="129" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="131" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="133" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="153" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3260,8 +3470,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>234</v>
+      <c r="B2" s="124" t="s">
+        <v>243</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -3312,20 +3522,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="113" t="s">
-        <v>233</v>
+      <c r="V2" s="123" t="s">
+        <v>242</v>
       </c>
       <c r="W2" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="X2" s="115" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y2" s="116" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z2" s="117" t="s">
-        <v>236</v>
+      <c r="X2" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y2" s="126" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z2" s="127" t="s">
+        <v>246</v>
       </c>
       <c r="AA2" s="87" t="s">
         <v>210</v>
@@ -3902,8 +4112,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="104" t="s">
-        <v>221</v>
+      <c r="B9" s="119" t="s">
+        <v>238</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3954,20 +4164,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="103" t="s">
-        <v>225</v>
+      <c r="V9" s="118" t="s">
+        <v>237</v>
       </c>
       <c r="W9" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="105" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y9" s="106" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z9" s="107" t="s">
-        <v>228</v>
+      <c r="X9" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y9" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z9" s="122" t="s">
+        <v>241</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>146</v>

--- a/testdata/FCfiles/qa/RequestReroute/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/qa/RequestReroute/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="259">
   <si>
     <t>shipmentType</t>
   </si>
@@ -768,6 +768,42 @@
   </si>
   <si>
     <t>FCPBID1001701</t>
+  </si>
+  <si>
+    <t>51545282</t>
+  </si>
+  <si>
+    <t>08-15-2022</t>
+  </si>
+  <si>
+    <t>$558.36</t>
+  </si>
+  <si>
+    <t>361U902246</t>
+  </si>
+  <si>
+    <t>FCPBID1001816</t>
+  </si>
+  <si>
+    <t>51545283</t>
+  </si>
+  <si>
+    <t>$62.83</t>
+  </si>
+  <si>
+    <t>1ZXXXXXXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>FCUPSG1012836</t>
+  </si>
+  <si>
+    <t>51545284</t>
+  </si>
+  <si>
+    <t>$151.24</t>
+  </si>
+  <si>
+    <t>FCUPSG1012837</t>
   </si>
 </sst>
 </file>
@@ -803,7 +839,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="158">
+  <fills count="188">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1590,8 +1626,158 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="154">
+  <borders count="184">
     <border>
       <left/>
       <right/>
@@ -2405,6 +2591,111 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -2694,7 +2985,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2822,7 +3113,22 @@
     <xf applyBorder="true" applyFill="true" borderId="147" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="149" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="151" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="153" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="183" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3470,8 +3776,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="124" t="s">
-        <v>243</v>
+      <c r="B2" s="129" t="s">
+        <v>248</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -3522,20 +3828,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="123" t="s">
-        <v>242</v>
+      <c r="V2" s="128" t="s">
+        <v>247</v>
       </c>
       <c r="W2" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="X2" s="125" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y2" s="126" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z2" s="127" t="s">
-        <v>246</v>
+      <c r="X2" s="130" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y2" s="131" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z2" s="132" t="s">
+        <v>251</v>
       </c>
       <c r="AA2" s="87" t="s">
         <v>210</v>
@@ -4112,8 +4418,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="119" t="s">
-        <v>238</v>
+      <c r="B9" s="134" t="s">
+        <v>248</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -4164,20 +4470,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="118" t="s">
-        <v>237</v>
+      <c r="V9" s="133" t="s">
+        <v>252</v>
       </c>
       <c r="W9" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y9" s="121" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z9" s="122" t="s">
-        <v>241</v>
+      <c r="X9" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y9" s="136" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z9" s="137" t="s">
+        <v>255</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>146</v>
@@ -4280,8 +4586,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="109" t="s">
-        <v>221</v>
+      <c r="B11" s="139" t="s">
+        <v>248</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -4332,20 +4638,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="108" t="s">
-        <v>229</v>
+      <c r="V11" s="138" t="s">
+        <v>256</v>
       </c>
       <c r="W11" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="110" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y11" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z11" s="112" t="s">
-        <v>232</v>
+      <c r="X11" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y11" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z11" s="142" t="s">
+        <v>258</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>146</v>
